--- a/woniuboss-sh-xnn-log/March_24/3.24罗超凡--工作日志.xlsx
+++ b/woniuboss-sh-xnn-log/March_24/3.24罗超凡--工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8970"/>
+    <workbookView windowWidth="19935" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="工作日志记录" sheetId="1" r:id="rId1"/>
@@ -14,54 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>2020/3/24工作日志</t>
+    <t>2020/3/26工作日志</t>
   </si>
   <si>
-    <t>项目名称</t>
+    <t xml:space="preserve"> 本组的测试报告是否完成</t>
   </si>
   <si>
-    <t>蜗牛BOSS系统2.5版功能测试</t>
+    <t>测试报告已完成</t>
   </si>
   <si>
-    <t>项目测试进度</t>
+    <t xml:space="preserve">    这个版本测试你觉得哪些地方做的好，哪些地方做的不好？新的版本计划从哪些方面改善？</t>
   </si>
   <si>
-    <t>截止到2020年3月24日,蜗牛BOSS系统2.5版手工测试工作已完成</t>
+    <t>好的地方是，组员互相疏通未涉及到的模块，整个流程熟悉程度较好
+不好的地方是测试需求提取的不够细，时间紧个别组员不足够重视用例前期工作，
+导致写用例时修改增删非常的麻烦，思路不清楚，写起来很费时间和精力，
+还要回头修改很多需求
+这一问是个难题，新的版本计划除了bug回归测试，还应该优化的地方没考虑清楚</t>
   </si>
   <si>
-    <t>测试报告有没有提交到github</t>
+    <t xml:space="preserve">    接口文档写完了吗？接口测试用例准备的如何了？</t>
   </si>
   <si>
-    <t>已提交</t>
-  </si>
-  <si>
-    <t>接口测试文档是否完成</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>明天可以开始写接口测试的脚本了吗</t>
-  </si>
-  <si>
-    <t>理论上可以</t>
+    <t>接口测试文档被这两天的loadrunner的使用理解困住了，还需要延迟</t>
   </si>
   <si>
     <t>本组测试框架是否完成</t>
   </si>
   <si>
-    <t>是否影响本组其他同学的测试脚本编写</t>
-  </si>
-  <si>
-    <t>应该不会影响</t>
-  </si>
-  <si>
-    <t>如果影响，那么何时能够解决这个瓶颈</t>
-  </si>
-  <si>
-    <t>周五下课之前</t>
+    <t>已完成</t>
   </si>
 </sst>
 </file>
@@ -69,12 +52,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,21 +67,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -126,18 +94,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,69 +111,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,23 +184,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,21 +233,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,21 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -526,16 +479,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,26 +528,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,137 +586,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,19 +732,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,12 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1116,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1166,26 +1128,26 @@
       <c r="L2" s="12"/>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:13">
+    <row r="3" ht="85" customHeight="1" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" ht="27.75" customHeight="1" spans="1:13">
+    <row r="4" ht="41" customHeight="1" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1204,8 +1166,8 @@
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" ht="29.25" customHeight="1" spans="1:13">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="31" customHeight="1" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1217,110 +1179,31 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
     </row>
-    <row r="6" ht="27.75" customHeight="1" spans="1:13">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
+    <row r="8" ht="15" spans="1:1">
+      <c r="A8" s="8"/>
     </row>
-    <row r="7" ht="31" customHeight="1" spans="1:13">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
+    <row r="9" ht="14.25" spans="1:1">
+      <c r="A9" s="9"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:12">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+    <row r="10" ht="14.25" spans="1:1">
+      <c r="A10" s="9"/>
     </row>
-    <row r="9" ht="27" customHeight="1" spans="1:13">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="12" ht="15" spans="1:1">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:1">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:1">
-      <c r="A15" s="9"/>
+    <row r="11" ht="14.25" spans="1:1">
+      <c r="A11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
